--- a/Travis_County/Documentation/Travis_County_2021_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2021_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEXTRCT' 'QEDLESHI' 'QHISPC' 'QESL' 'QNOHLTH' 'PERCAP' 'QFHH' 'PPUNIT']</t>
+          <t>['QESL' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT' 'PERCAP' 'QFHH' 'PPUNIT']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
+          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['PPUNIT' 'QRENTER' 'QPOVTY' 'QNOAUTO']</t>
+          <t>['PPUNIT' 'QRENTER' 'QNOAUTO' 'QPOVTY']</t>
         </is>
       </c>
     </row>
@@ -583,23 +583,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6861621458429565</v>
+        <v>0.7610062577811895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1369820424158413</v>
+        <v>0.1333403886192764</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03705268521088306</v>
+        <v>-0.04578602257528443</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1330635000096611</v>
+        <v>-0.08619628706535185</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02209505966227051</v>
+        <v>0.1477259465241284</v>
       </c>
     </row>
     <row r="3">
@@ -609,19 +609,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8518346845455926</v>
+        <v>0.8518346735234896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1560533303877588</v>
+        <v>0.1560533328595528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01764599160742268</v>
+        <v>0.01764598871686353</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04447833181331946</v>
+        <v>-0.04447833190290012</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1021079252040738</v>
+        <v>0.1021079200041525</v>
       </c>
     </row>
     <row r="4">
@@ -631,63 +631,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7657118355630304</v>
+        <v>0.7657118276039462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3426616996210947</v>
+        <v>0.3426616950275805</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.160116056915801</v>
+        <v>-0.1601160547051875</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03265425228372846</v>
+        <v>-0.03265425322249871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0297229043101284</v>
+        <v>0.02972290578617746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7610062605044748</v>
+        <v>0.6226791881210845</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1333403910842103</v>
+        <v>0.3646334553079043</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.04578602179688906</v>
+        <v>-0.09045423681247629</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.08619628715600293</v>
+        <v>-0.07925175242325973</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1477259490692356</v>
+        <v>0.2337813331417083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6226791760252387</v>
+        <v>0.6861621416534729</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3646334572934524</v>
+        <v>0.1369820403553316</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0904542397009056</v>
+        <v>0.03705268339142134</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.0792517497251321</v>
+        <v>-0.1330634983809462</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2337813272229766</v>
+        <v>0.02209505819997399</v>
       </c>
     </row>
     <row r="7">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4581655714273647</v>
+        <v>0.458165575889487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6946266723000184</v>
+        <v>0.6946266626630261</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1622585055731902</v>
+        <v>-0.1622585087068112</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08440054975304731</v>
+        <v>0.0844005496014288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1690618372245534</v>
+        <v>0.1690618353805722</v>
       </c>
     </row>
     <row r="8">
@@ -719,19 +719,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4629594434134517</v>
+        <v>0.46295944110152</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2259452001648728</v>
+        <v>0.2259451986006507</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02445972725126135</v>
+        <v>-0.02445972763939346</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2661428094052426</v>
+        <v>0.2661428049936261</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02643591617613559</v>
+        <v>-0.02643591715161355</v>
       </c>
     </row>
     <row r="9">
@@ -741,63 +741,63 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5405795026560358</v>
+        <v>0.5405794982954366</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01941550054971277</v>
+        <v>-0.01941550023599663</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07167534666060786</v>
+        <v>-0.07167534579340316</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06034178969880127</v>
+        <v>0.06034178771729221</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5093119497862184</v>
+        <v>-0.5093119501937002</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3520833482442685</v>
+        <v>0.2158065095036381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7473204979352606</v>
+        <v>0.7856952573480203</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05970158769441888</v>
+        <v>-0.1355462525119424</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04322327752913768</v>
+        <v>0.006122160876270683</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02557816440415308</v>
+        <v>0.3941286340481903</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2158065023710461</v>
+        <v>0.3520833567993447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7856952661437874</v>
+        <v>0.7473204754617796</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1355462496430725</v>
+        <v>-0.05970158996404891</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006122159581140635</v>
+        <v>0.04322327902390938</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3941286348130665</v>
+        <v>-0.02557815649720901</v>
       </c>
     </row>
     <row r="12">
@@ -807,63 +807,63 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.803997086131154e-05</v>
+        <v>8.804330621840351e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1850510078365786</v>
+        <v>0.185051007649966</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.407886522558264</v>
+        <v>-0.407886522145631</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.058430072799486</v>
+        <v>-0.05843007319316668</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7697888753184194</v>
+        <v>0.7697888623370007</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>QPOVTY</t>
+          <t>QNOAUTO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2551100583457214</v>
+        <v>0.08296100846548415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1570570256725608</v>
+        <v>0.03898916705601826</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2008460403539826</v>
+        <v>-0.03483637707826664</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07324386458368377</v>
+        <v>-0.01700687927770052</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5089186914948198</v>
+        <v>0.6050163394023748</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>QNOAUTO</t>
+          <t>QPOVTY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.082961008075582</v>
+        <v>0.2551100569430586</v>
       </c>
       <c r="C14" t="n">
-        <v>0.03898916577530242</v>
+        <v>0.1570570275806962</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03483637151098713</v>
+        <v>-0.2008460437461359</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01700688050004655</v>
+        <v>0.07324386251104999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6050163494461024</v>
+        <v>0.508918677443648</v>
       </c>
     </row>
     <row r="15">
@@ -873,19 +873,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2157680403519312</v>
+        <v>-0.2157680411866503</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2398741603375023</v>
+        <v>-0.2398741583624964</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7744618771792275</v>
+        <v>0.7744618848144592</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07605964704830742</v>
+        <v>-0.07605964616599681</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2120411738063801</v>
+        <v>-0.2120411699949257</v>
       </c>
     </row>
     <row r="16">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008320342029171394</v>
+        <v>0.008320341499049514</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05310913541095807</v>
+        <v>-0.05310913505862547</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6798323113618873</v>
+        <v>0.6798322978066796</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6149755406980038</v>
+        <v>0.6149755348010878</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1056721476622241</v>
+        <v>-0.1056721511974087</v>
       </c>
     </row>
     <row r="17">
@@ -917,63 +917,63 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03483494135337926</v>
+        <v>0.03483494139368418</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02143098940124403</v>
+        <v>-0.02143099122821853</v>
       </c>
       <c r="D17" t="n">
-        <v>0.805696306634607</v>
+        <v>0.8056962905085461</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01169225239439931</v>
+        <v>0.01169225856613279</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1333783557663623</v>
+        <v>-0.1333783592501132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1508984819468951</v>
+        <v>0.01407163419884689</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06421827914812865</v>
+        <v>0.003044395503004171</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.08911824916737858</v>
+        <v>0.1083432315533387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7138512697448922</v>
+        <v>0.9214417475960845</v>
       </c>
       <c r="F18" t="n">
-        <v>0.005216869557911287</v>
+        <v>0.002500954170169703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0140716338701838</v>
+        <v>-0.1508984802342096</v>
       </c>
       <c r="C19" t="n">
-        <v>0.003044394940983785</v>
+        <v>0.06421827994416981</v>
       </c>
       <c r="D19" t="n">
-        <v>0.108343232336975</v>
+        <v>-0.08911824544308526</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9214417525322396</v>
+        <v>0.7138512575150868</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002500954585208268</v>
+        <v>0.005216870578623989</v>
       </c>
     </row>
   </sheetData>
@@ -1094,58 +1094,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.900574070364033</v>
+        <v>3.900574041132087</v>
       </c>
       <c r="C2" t="n">
-        <v>2.558544547139457</v>
+        <v>2.558544483548966</v>
       </c>
       <c r="D2" t="n">
-        <v>2.254801306203452</v>
+        <v>2.25480123973847</v>
       </c>
       <c r="E2" t="n">
-        <v>1.901873727146661</v>
+        <v>1.901873707730586</v>
       </c>
       <c r="F2" t="n">
-        <v>1.878822831905611</v>
+        <v>1.878822845098686</v>
       </c>
       <c r="G2" t="n">
-        <v>1.435714392631525</v>
+        <v>1.435714307671338</v>
       </c>
       <c r="H2" t="n">
-        <v>1.22040488123066</v>
+        <v>1.220404843140335</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4803286190979901</v>
+        <v>0.4803285790167273</v>
       </c>
       <c r="J2" t="n">
-        <v>4.08307290290811</v>
+        <v>4.083072899139387</v>
       </c>
       <c r="K2" t="n">
-        <v>2.086224407413337</v>
+        <v>2.086224398738207</v>
       </c>
       <c r="L2" t="n">
-        <v>2.080481397939455</v>
+        <v>2.080481385016894</v>
       </c>
       <c r="M2" t="n">
-        <v>2.02341241835822</v>
+        <v>2.023412401875146</v>
       </c>
       <c r="N2" t="n">
-        <v>1.866365266617708</v>
+        <v>1.866365254642571</v>
       </c>
       <c r="O2" t="n">
-        <v>3.779394376124555</v>
+        <v>3.779394355859782</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14639404316175</v>
+        <v>2.146393976425902</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.030314432646517</v>
+        <v>2.030314401201522</v>
       </c>
       <c r="R2" t="n">
-        <v>1.869786672969884</v>
+        <v>1.869786636450579</v>
       </c>
       <c r="S2" t="n">
-        <v>1.824514632700261</v>
+        <v>1.824514586140353</v>
       </c>
     </row>
     <row r="3">
@@ -1155,58 +1155,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.144465706309779</v>
+        <v>0.1444657052271144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09476090915331323</v>
+        <v>0.09476090679810986</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08351115948901672</v>
+        <v>0.08351115702735074</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07043976767209857</v>
+        <v>0.07043976695298465</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06958603081131892</v>
+        <v>0.06958603129995135</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05317460713450094</v>
+        <v>0.05317460398782732</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04520018078632074</v>
+        <v>0.04520017937556795</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01778994885548111</v>
+        <v>0.0177899473709899</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2041536451454055</v>
+        <v>0.2041536449569693</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1043112203706668</v>
+        <v>0.1043112199369104</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1040240698969727</v>
+        <v>0.1040240692508447</v>
       </c>
       <c r="M3" t="n">
-        <v>0.101170620917911</v>
+        <v>0.1011706200937573</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09331826333088537</v>
+        <v>0.09331826273212855</v>
       </c>
       <c r="O3" t="n">
-        <v>0.209966354229142</v>
+        <v>0.2099663531033212</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1192441135089861</v>
+        <v>0.119244109801439</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1127952462581398</v>
+        <v>0.1127952445111957</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1038770373872158</v>
+        <v>0.1038770353583655</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1013619240389034</v>
+        <v>0.1013619214522418</v>
       </c>
     </row>
     <row r="4">
@@ -1216,58 +1216,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.144465706309779</v>
+        <v>0.1444657052271144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2392266154630922</v>
+        <v>0.2392266120252242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3227377749521089</v>
+        <v>0.322737769052575</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3931775426242075</v>
+        <v>0.3931775360055596</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4627635734355264</v>
+        <v>0.4627635673055109</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5159381805700274</v>
+        <v>0.5159381712933383</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5611383613563481</v>
+        <v>0.5611383506689063</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5789283102118292</v>
+        <v>0.5789282980398962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2041536451454055</v>
+        <v>0.2041536449569693</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3084648655160723</v>
+        <v>0.3084648648938797</v>
       </c>
       <c r="L4" t="n">
-        <v>0.412488935413045</v>
+        <v>0.4124889341447244</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5136595563309561</v>
+        <v>0.5136595542384816</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6069778196618414</v>
+        <v>0.6069778169706102</v>
       </c>
       <c r="O4" t="n">
-        <v>0.209966354229142</v>
+        <v>0.2099663531033212</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3292104677381281</v>
+        <v>0.3292104629047602</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.442005713996268</v>
+        <v>0.4420057074159559</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5458827513834837</v>
+        <v>0.5458827427743214</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6472446754223872</v>
+        <v>0.6472446642265632</v>
       </c>
     </row>
     <row r="5">
@@ -1277,58 +1277,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2495398890700632</v>
+        <v>0.2495398924465058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.163683322238362</v>
+        <v>0.1636833216115816</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1442512967770743</v>
+        <v>0.1442512955578407</v>
       </c>
       <c r="E5" t="n">
-        <v>0.12167269492543</v>
+        <v>0.1216726962414444</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1201980099847898</v>
+        <v>0.1201980133559751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09185007227413772</v>
+        <v>0.09185006876993748</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07807560968953486</v>
+        <v>0.07807560889423484</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03072910504060821</v>
+        <v>0.03072910312248017</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3363444899175118</v>
+        <v>0.3363444910983533</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1718534302106468</v>
+        <v>0.1718534302579976</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1713803478929864</v>
+        <v>0.171380347588356</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1666792716977287</v>
+        <v>0.166679271078956</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1537424602811264</v>
+        <v>0.1537424599763372</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3244002804536313</v>
+        <v>0.3244002843255948</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1842334406708997</v>
+        <v>0.1842334381295084</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1742698712577751</v>
+        <v>0.17426987157319</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1604911424252758</v>
+        <v>0.1604911420668029</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1566052651924179</v>
+        <v>0.1566052639049039</v>
       </c>
     </row>
   </sheetData>
@@ -1384,19 +1384,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.779394376124555</v>
+        <v>3.779394355859782</v>
       </c>
       <c r="C2" t="n">
-        <v>2.14639404316175</v>
+        <v>2.146393976425902</v>
       </c>
       <c r="D2" t="n">
-        <v>2.030314432646517</v>
+        <v>2.030314401201522</v>
       </c>
       <c r="E2" t="n">
-        <v>1.869786672969884</v>
+        <v>1.869786636450579</v>
       </c>
       <c r="F2" t="n">
-        <v>1.824514632700261</v>
+        <v>1.824514586140353</v>
       </c>
     </row>
     <row r="3">
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.209966354229142</v>
+        <v>0.2099663531033212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1192441135089861</v>
+        <v>0.119244109801439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1127952462581398</v>
+        <v>0.1127952445111957</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1038770373872158</v>
+        <v>0.1038770353583655</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1013619240389034</v>
+        <v>0.1013619214522418</v>
       </c>
     </row>
     <row r="4">
@@ -1428,19 +1428,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.209966354229142</v>
+        <v>0.2099663531033212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3292104677381281</v>
+        <v>0.3292104629047602</v>
       </c>
       <c r="D4" t="n">
-        <v>0.442005713996268</v>
+        <v>0.4420057074159559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5458827513834837</v>
+        <v>0.5458827427743214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6472446754223872</v>
+        <v>0.6472446642265632</v>
       </c>
     </row>
     <row r="5">
@@ -1450,19 +1450,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3244002804536313</v>
+        <v>0.3244002843255948</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1842334406708997</v>
+        <v>0.1842334381295084</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1742698712577751</v>
+        <v>0.17426987157319</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1604911424252758</v>
+        <v>0.1604911420668029</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1566052651924179</v>
+        <v>0.1566052639049039</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEXTRCT', 'QEDLESHI', 'QHISPC', 'QESL', 'QNOHLTH', 'PERCAP', 'QFHH', 'PPUNIT', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMLBR', 'QFEMALE', 'QRENTER', 'QPOVTY', 'QNOAUTO']]</t>
+          <t>[['QESL', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'PERCAP', 'QFHH', 'PPUNIT', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2021_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2021_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QESL' 'QEDLESHI' 'QHISPC' 'QNOHLTH' 'QEXTRCT' 'PERCAP' 'QFHH' 'PPUNIT']</t>
+          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'PERCAP' 'QFHH' 'PPUNIT']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
+          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
         </is>
       </c>
     </row>
@@ -583,45 +583,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7610062577811895</v>
+        <v>0.8518346859926185</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1333403886192764</v>
+        <v>0.1560533301993063</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04578602257528443</v>
+        <v>0.01764599035628431</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08619628706535185</v>
+        <v>-0.04447833173201619</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1477259465241284</v>
+        <v>0.1021079214108589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8518346735234896</v>
+        <v>0.6226791848382643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1560533328595528</v>
+        <v>0.3646334587942151</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01764598871686353</v>
+        <v>-0.09045423744286139</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.04447833190290012</v>
+        <v>-0.07925175196207133</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1021079200041525</v>
+        <v>0.233781331794922</v>
       </c>
     </row>
     <row r="4">
@@ -631,63 +631,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7657118276039462</v>
+        <v>0.7657118216640205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3426616950275805</v>
+        <v>0.3426617010696894</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1601160547051875</v>
+        <v>-0.1601160540153978</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03265425322249871</v>
+        <v>-0.0326542534714982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02972290578617746</v>
+        <v>0.02972290619010561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6226791881210845</v>
+        <v>0.6861621373432725</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3646334553079043</v>
+        <v>0.1369820459776528</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09045423681247629</v>
+        <v>0.03705268096499177</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07925175242325973</v>
+        <v>-0.1330634965818704</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2337813331417083</v>
+        <v>0.02209505595023793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6861621416534729</v>
+        <v>0.7610062634105719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1369820403553316</v>
+        <v>0.1333403886590346</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03705268339142134</v>
+        <v>-0.04578602382089397</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1330634983809462</v>
+        <v>-0.08619628613609438</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02209505819997399</v>
+        <v>0.1477259465730473</v>
       </c>
     </row>
     <row r="7">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.458165575889487</v>
+        <v>0.4581655686451704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6946266626630261</v>
+        <v>0.6946266803311795</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1622585087068112</v>
+        <v>-0.162258505016106</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0844005496014288</v>
+        <v>0.08440054753080477</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1690618353805722</v>
+        <v>0.1690618353725271</v>
       </c>
     </row>
     <row r="8">
@@ -719,19 +719,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.46295944110152</v>
+        <v>0.4629594365978057</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2259451986006507</v>
+        <v>0.2259452040638258</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02445972763939346</v>
+        <v>-0.02445972463349311</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2661428049936261</v>
+        <v>0.2661427998162083</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02643591715161355</v>
+        <v>-0.02643591622709423</v>
       </c>
     </row>
     <row r="9">
@@ -741,63 +741,63 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5405794982954366</v>
+        <v>0.5405795011510933</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01941550023599663</v>
+        <v>-0.01941549243513691</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07167534579340316</v>
+        <v>-0.07167534916048403</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06034178771729221</v>
+        <v>0.06034178756392376</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5093119501937002</v>
+        <v>-0.5093119616142595</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2158065095036381</v>
+        <v>0.3520833472261669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7856952573480203</v>
+        <v>0.7473204930406326</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1355462525119424</v>
+        <v>-0.05970158673399089</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006122160876270683</v>
+        <v>0.04322327636761689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3941286340481903</v>
+        <v>-0.02557815822076674</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3520833567993447</v>
+        <v>0.215806508909151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7473204754617796</v>
+        <v>0.785695245215613</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.05970158996404891</v>
+        <v>-0.1355462524093143</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04322327902390938</v>
+        <v>0.006122161019894623</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02557815649720901</v>
+        <v>0.3941286366357912</v>
       </c>
     </row>
     <row r="12">
@@ -807,19 +807,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.804330621840351e-05</v>
+        <v>8.804370949011526e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185051007649966</v>
+        <v>0.1850510034701417</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.407886522145631</v>
+        <v>-0.407886523239733</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05843007319316668</v>
+        <v>-0.05843007158043342</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7697888623370007</v>
+        <v>0.7697888735069828</v>
       </c>
     </row>
     <row r="13">
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08296100846548415</v>
+        <v>0.08296100900057019</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03898916705601826</v>
+        <v>0.03898916835785909</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03483637707826664</v>
+        <v>-0.03483637442628647</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01700687927770052</v>
+        <v>-0.01700688026816176</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6050163394023748</v>
+        <v>0.605016337662725</v>
       </c>
     </row>
     <row r="14">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2551100569430586</v>
+        <v>0.2551100590505677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1570570275806962</v>
+        <v>0.1570570281189941</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2008460437461359</v>
+        <v>-0.2008460411847263</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07324386251104999</v>
+        <v>0.07324386368441746</v>
       </c>
       <c r="F14" t="n">
-        <v>0.508918677443648</v>
+        <v>0.5089186865160299</v>
       </c>
     </row>
     <row r="15">
@@ -873,19 +873,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2157680411866503</v>
+        <v>-0.2157680382125313</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2398741583624964</v>
+        <v>-0.2398741648935387</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7744618848144592</v>
+        <v>0.7744618690791932</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07605964616599681</v>
+        <v>-0.07605964233537107</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2120411699949257</v>
+        <v>-0.2120411721236998</v>
       </c>
     </row>
     <row r="16">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008320341499049514</v>
+        <v>0.008320340901266817</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05310913505862547</v>
+        <v>-0.05310913413947053</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6798322978066796</v>
+        <v>0.6798322993573286</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6149755348010878</v>
+        <v>0.614975528726851</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1056721511974087</v>
+        <v>-0.105672152831702</v>
       </c>
     </row>
     <row r="17">
@@ -917,19 +917,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03483494139368418</v>
+        <v>0.03483494090050852</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02143099122821853</v>
+        <v>-0.02143098734747156</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8056962905085461</v>
+        <v>0.8056963110176865</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01169225856613279</v>
+        <v>0.01169225123203965</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1333783592501132</v>
+        <v>-0.1333783562191353</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01407163419884689</v>
+        <v>0.01407163670966297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003044395503004171</v>
+        <v>0.003044393031457317</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1083432315533387</v>
+        <v>0.1083432316077223</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9214417475960845</v>
+        <v>0.9214417712464358</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002500954170169703</v>
+        <v>0.002500954869113549</v>
       </c>
     </row>
     <row r="19">
@@ -961,19 +961,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1508984802342096</v>
+        <v>-0.1508984812563196</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06421827994416981</v>
+        <v>0.06421828161488342</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.08911824544308526</v>
+        <v>-0.08911824378135533</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7138512575150868</v>
+        <v>0.7138512569573399</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005216870578623989</v>
+        <v>0.005216870318680874</v>
       </c>
     </row>
   </sheetData>
@@ -1118,34 +1118,34 @@
         <v>0.4803285790167273</v>
       </c>
       <c r="J2" t="n">
-        <v>4.083072899139387</v>
+        <v>4.083072905405511</v>
       </c>
       <c r="K2" t="n">
-        <v>2.086224398738207</v>
+        <v>2.086224414065351</v>
       </c>
       <c r="L2" t="n">
-        <v>2.080481385016894</v>
+        <v>2.080481406144666</v>
       </c>
       <c r="M2" t="n">
-        <v>2.023412401875146</v>
+        <v>2.023412423509486</v>
       </c>
       <c r="N2" t="n">
-        <v>1.866365254642571</v>
+        <v>1.866365276308114</v>
       </c>
       <c r="O2" t="n">
-        <v>3.779394355859782</v>
+        <v>3.779394352068206</v>
       </c>
       <c r="P2" t="n">
-        <v>2.146393976425902</v>
+        <v>2.146394019542956</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.030314401201522</v>
+        <v>2.030314409989596</v>
       </c>
       <c r="R2" t="n">
-        <v>1.869786636450579</v>
+        <v>1.869786666968217</v>
       </c>
       <c r="S2" t="n">
-        <v>1.824514586140353</v>
+        <v>1.824514624213143</v>
       </c>
     </row>
     <row r="3">
@@ -1179,34 +1179,34 @@
         <v>0.0177899473709899</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2041536449569693</v>
+        <v>0.2041536452702755</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1043112199369104</v>
+        <v>0.1043112207032676</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1040240692508447</v>
+        <v>0.1040240703072333</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1011706200937573</v>
+        <v>0.1011706211754743</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09331826273212855</v>
+        <v>0.09331826381540571</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2099663531033212</v>
+        <v>0.2099663528926781</v>
       </c>
       <c r="P3" t="n">
-        <v>0.119244109801439</v>
+        <v>0.1192441121968309</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1127952445111957</v>
+        <v>0.112795244999422</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1038770353583655</v>
+        <v>0.1038770370537899</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1013619214522418</v>
+        <v>0.1013619235673968</v>
       </c>
     </row>
     <row r="4">
@@ -1240,34 +1240,34 @@
         <v>0.5789282980398962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2041536449569693</v>
+        <v>0.2041536452702755</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3084648648938797</v>
+        <v>0.3084648659735431</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4124889341447244</v>
+        <v>0.4124889362807764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5136595542384816</v>
+        <v>0.5136595574562507</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6069778169706102</v>
+        <v>0.6069778212716564</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2099663531033212</v>
+        <v>0.2099663528926781</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3292104629047602</v>
+        <v>0.329210465089509</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4420057074159559</v>
+        <v>0.442005710088931</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5458827427743214</v>
+        <v>0.5458827471427209</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6472446642265632</v>
+        <v>0.6472446707101177</v>
       </c>
     </row>
     <row r="5">
@@ -1301,34 +1301,34 @@
         <v>0.03072910312248017</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3363444910983533</v>
+        <v>0.3363444892311895</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1718534302579976</v>
+        <v>0.1718534303028223</v>
       </c>
       <c r="L5" t="n">
-        <v>0.171380347588356</v>
+        <v>0.1713803481143617</v>
       </c>
       <c r="M5" t="n">
-        <v>0.166679271078956</v>
+        <v>0.1666792716800023</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1537424599763372</v>
+        <v>0.1537424606716241</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3244002843255948</v>
+        <v>0.3244002807505788</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1842334381295084</v>
+        <v>0.1842334399849187</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.17426987157319</v>
+        <v>0.1742698705818155</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1604911420668029</v>
+        <v>0.1604911430785861</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1566052639049039</v>
+        <v>0.1566052656041009</v>
       </c>
     </row>
   </sheetData>
@@ -1384,19 +1384,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.779394355859782</v>
+        <v>3.779394352068206</v>
       </c>
       <c r="C2" t="n">
-        <v>2.146393976425902</v>
+        <v>2.146394019542956</v>
       </c>
       <c r="D2" t="n">
-        <v>2.030314401201522</v>
+        <v>2.030314409989596</v>
       </c>
       <c r="E2" t="n">
-        <v>1.869786636450579</v>
+        <v>1.869786666968217</v>
       </c>
       <c r="F2" t="n">
-        <v>1.824514586140353</v>
+        <v>1.824514624213143</v>
       </c>
     </row>
     <row r="3">
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2099663531033212</v>
+        <v>0.2099663528926781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.119244109801439</v>
+        <v>0.1192441121968309</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1127952445111957</v>
+        <v>0.112795244999422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1038770353583655</v>
+        <v>0.1038770370537899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1013619214522418</v>
+        <v>0.1013619235673968</v>
       </c>
     </row>
     <row r="4">
@@ -1428,19 +1428,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2099663531033212</v>
+        <v>0.2099663528926781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3292104629047602</v>
+        <v>0.329210465089509</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4420057074159559</v>
+        <v>0.442005710088931</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5458827427743214</v>
+        <v>0.5458827471427209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6472446642265632</v>
+        <v>0.6472446707101177</v>
       </c>
     </row>
     <row r="5">
@@ -1450,19 +1450,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3244002843255948</v>
+        <v>0.3244002807505788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1842334381295084</v>
+        <v>0.1842334399849187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17426987157319</v>
+        <v>0.1742698705818155</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1604911420668029</v>
+        <v>0.1604911430785861</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1566052639049039</v>
+        <v>0.1566052656041009</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QESL', 'QEDLESHI', 'QHISPC', 'QNOHLTH', 'QEXTRCT', 'PERCAP', 'QFHH', 'PPUNIT', 'QRICH', 'MDHSEVAL', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
+          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'PERCAP', 'QFHH', 'PPUNIT', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/Travis_County/Documentation/Travis_County_2021_bg_SVI.xlsx
+++ b/Travis_County/Documentation/Travis_County_2021_bg_SVI.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['QEDLESHI' 'QNOHLTH' 'QHISPC' 'QEXTRCT' 'QESL' 'PERCAP' 'QFHH' 'PPUNIT']</t>
+          <t>['QEXTRCT' 'QESL' 'QHISPC' 'QEDLESHI' 'QNOHLTH' 'PERCAP' 'QFHH' 'PPUNIT']</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['PERCAP' 'MDHSEVAL' 'QRICH']</t>
+          <t>['PERCAP' 'QRICH' 'MDHSEVAL']</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEDAGE' 'QAGEDEP' 'QSSBEN']</t>
+          <t>['QAGEDEP' 'MEDAGE' 'QSSBEN']</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['QAGEDEP' 'QFEMALE' 'QFEMLBR']</t>
+          <t>['QAGEDEP' 'QFEMLBR' 'QFEMALE']</t>
         </is>
       </c>
     </row>
@@ -583,45 +583,45 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>QEDLESHI</t>
+          <t>QEXTRCT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8518346859926185</v>
+        <v>0.6861621369840734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1560533301993063</v>
+        <v>0.1369820409115101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01764599035628431</v>
+        <v>0.03705268242987249</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04447833173201619</v>
+        <v>-0.1330634971136807</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1021079214108589</v>
+        <v>0.02209505719912338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>QNOHLTH</t>
+          <t>QESL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6226791848382643</v>
+        <v>0.7610062595033303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3646334587942151</v>
+        <v>0.1333403856157095</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.09045423744286139</v>
+        <v>-0.0457860221660163</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.07925175196207133</v>
+        <v>-0.08619628694586934</v>
       </c>
       <c r="F3" t="n">
-        <v>0.233781331794922</v>
+        <v>0.1477259463111928</v>
       </c>
     </row>
     <row r="4">
@@ -631,63 +631,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7657118216640205</v>
+        <v>0.7657118309845242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3426617010696894</v>
+        <v>0.3426616927426591</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1601160540153978</v>
+        <v>-0.1601160553694283</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0326542534714982</v>
+        <v>-0.03265425270417702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02972290619010561</v>
+        <v>0.02972290448546306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>QEXTRCT</t>
+          <t>QEDLESHI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6861621373432725</v>
+        <v>0.8518346711795487</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1369820459776528</v>
+        <v>0.1560533323342601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03705268096499177</v>
+        <v>0.01764598775820661</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1330634965818704</v>
+        <v>-0.04447833179459585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02209505595023793</v>
+        <v>0.1021079176823914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>QESL</t>
+          <t>QNOHLTH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7610062634105719</v>
+        <v>0.6226791937619538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1333403886590346</v>
+        <v>0.3646334545006599</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04578602382089397</v>
+        <v>-0.09045423546840405</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.08619628613609438</v>
+        <v>-0.07925175329250797</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1477259465730473</v>
+        <v>0.2337813356936701</v>
       </c>
     </row>
     <row r="7">
@@ -697,19 +697,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4581655686451704</v>
+        <v>0.4581655783272837</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6946266803311795</v>
+        <v>0.6946266546328257</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.162258505016106</v>
+        <v>-0.1622585102102716</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08440054753080477</v>
+        <v>0.08440055001674149</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1690618353725271</v>
+        <v>0.1690618353542978</v>
       </c>
     </row>
     <row r="8">
@@ -719,19 +719,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4629594365978057</v>
+        <v>0.4629594412181414</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2259452040638258</v>
+        <v>0.2259451969006321</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02445972463349311</v>
+        <v>-0.02445972851334618</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2661427998162083</v>
+        <v>0.266142804994299</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02643591622709423</v>
+        <v>-0.02643591811708856</v>
       </c>
     </row>
     <row r="9">
@@ -741,63 +741,63 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5405795011510933</v>
+        <v>0.5405794971023409</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01941549243513691</v>
+        <v>-0.01941550115363555</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07167534916048403</v>
+        <v>-0.07167534599351701</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06034178756392376</v>
+        <v>0.06034178759289222</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5093119616142595</v>
+        <v>-0.509311952649019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MDHSEVAL</t>
+          <t>QRICH</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3520833472261669</v>
+        <v>0.2158065126519416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7473204930406326</v>
+        <v>0.7856952546196763</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.05970158673399089</v>
+        <v>-0.1355462535855882</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04322327636761689</v>
+        <v>0.006122161864189169</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02557815822076674</v>
+        <v>0.3941286348942635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>QRICH</t>
+          <t>MDHSEVAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.215806508909151</v>
+        <v>0.3520833576086306</v>
       </c>
       <c r="C11" t="n">
-        <v>0.785695245215613</v>
+        <v>0.7473204774786562</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1355462524093143</v>
+        <v>-0.05970158999541795</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006122161019894623</v>
+        <v>0.04322327908081265</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3941286366357912</v>
+        <v>-0.02557815698885375</v>
       </c>
     </row>
     <row r="12">
@@ -807,19 +807,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.804370949011526e-05</v>
+        <v>8.804567514617852e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1850510034701417</v>
+        <v>0.1850510056404087</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.407886523239733</v>
+        <v>-0.4078865228918835</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.05843007158043342</v>
+        <v>-0.05843007178100684</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7697888735069828</v>
+        <v>0.7697888638425988</v>
       </c>
     </row>
     <row r="13">
@@ -829,19 +829,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08296100900057019</v>
+        <v>0.08296100993304176</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03898916835785909</v>
+        <v>0.03898916580297255</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03483637442628647</v>
+        <v>-0.03483637831037432</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01700688026816176</v>
+        <v>-0.01700687869317976</v>
       </c>
       <c r="F13" t="n">
-        <v>0.605016337662725</v>
+        <v>0.6050163396110469</v>
       </c>
     </row>
     <row r="14">
@@ -851,63 +851,63 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2551100590505677</v>
+        <v>0.2551100558030827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1570570281189941</v>
+        <v>0.157057029416588</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2008460411847263</v>
+        <v>-0.2008460452094055</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07324386368441746</v>
+        <v>0.0732438610693109</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5089186865160299</v>
+        <v>0.5089186658371532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MEDAGE</t>
+          <t>QAGEDEP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2157680382125313</v>
+        <v>0.008320342555221429</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2398741648935387</v>
+        <v>-0.05310913538703931</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7744618690791932</v>
+        <v>0.679832305099877</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.07605964233537107</v>
+        <v>0.6149755400541009</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2120411721236998</v>
+        <v>-0.1056721484969751</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>QAGEDEP</t>
+          <t>MEDAGE</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008320340901266817</v>
+        <v>-0.2157680421423065</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.05310913413947053</v>
+        <v>-0.2398741567895207</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6798322993573286</v>
+        <v>0.7744618834270887</v>
       </c>
       <c r="E16" t="n">
-        <v>0.614975528726851</v>
+        <v>-0.07605964727241939</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.105672152831702</v>
+        <v>-0.2120411694857769</v>
       </c>
     </row>
     <row r="17">
@@ -917,63 +917,63 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03483494090050852</v>
+        <v>0.0348349409225177</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.02143098734747156</v>
+        <v>-0.02143099166194162</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8056963110176865</v>
+        <v>0.8056962844545668</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01169225123203965</v>
+        <v>0.01169225852141011</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1333783562191353</v>
+        <v>-0.1333783606423558</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>QFEMALE</t>
+          <t>QFEMLBR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01407163670966297</v>
+        <v>-0.1508984804554668</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003044393031457317</v>
+        <v>0.06421827975654623</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1083432316077223</v>
+        <v>-0.0891182476464424</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9214417712464358</v>
+        <v>0.7138512624185095</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002500954869113549</v>
+        <v>0.005216870371412786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>QFEMLBR</t>
+          <t>QFEMALE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1508984812563196</v>
+        <v>0.01407163346046028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06421828161488342</v>
+        <v>0.003044396636676153</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.08911824378135533</v>
+        <v>0.1083432321015054</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7138512569573399</v>
+        <v>0.9214417375769425</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005216870318680874</v>
+        <v>0.002500953311278286</v>
       </c>
     </row>
   </sheetData>
@@ -1118,34 +1118,34 @@
         <v>0.4803285790167273</v>
       </c>
       <c r="J2" t="n">
-        <v>4.083072905405511</v>
+        <v>4.083072909085918</v>
       </c>
       <c r="K2" t="n">
-        <v>2.086224414065351</v>
+        <v>2.086224409112965</v>
       </c>
       <c r="L2" t="n">
-        <v>2.080481406144666</v>
+        <v>2.080481394546425</v>
       </c>
       <c r="M2" t="n">
-        <v>2.023412423509486</v>
+        <v>2.023412423031613</v>
       </c>
       <c r="N2" t="n">
-        <v>1.866365276308114</v>
+        <v>1.866365268053231</v>
       </c>
       <c r="O2" t="n">
-        <v>3.779394352068206</v>
+        <v>3.7793943633677</v>
       </c>
       <c r="P2" t="n">
-        <v>2.146394019542956</v>
+        <v>2.146393959314242</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.030314409989596</v>
+        <v>2.030314401688588</v>
       </c>
       <c r="R2" t="n">
-        <v>1.869786666968217</v>
+        <v>1.869786631028111</v>
       </c>
       <c r="S2" t="n">
-        <v>1.824514624213143</v>
+        <v>1.824514580245487</v>
       </c>
     </row>
     <row r="3">
@@ -1179,34 +1179,34 @@
         <v>0.0177899473709899</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2041536452702755</v>
+        <v>0.2041536454542959</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1043112207032676</v>
+        <v>0.1043112204556483</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1040240703072333</v>
+        <v>0.1040240697273213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1011706211754743</v>
+        <v>0.1011706211515806</v>
       </c>
       <c r="N3" t="n">
-        <v>0.09331826381540571</v>
+        <v>0.09331826340266156</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2099663528926781</v>
+        <v>0.2099663535204278</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1192441121968309</v>
+        <v>0.1192441088507912</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.112795244999422</v>
+        <v>0.1127952445382549</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1038770370537899</v>
+        <v>0.1038770350571173</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1013619235673968</v>
+        <v>0.1013619211247493</v>
       </c>
     </row>
     <row r="4">
@@ -1240,34 +1240,34 @@
         <v>0.5789282980398962</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2041536452702755</v>
+        <v>0.2041536454542959</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3084648659735431</v>
+        <v>0.3084648659099442</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4124889362807764</v>
+        <v>0.4124889356372654</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5136595574562507</v>
+        <v>0.513659556788846</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6069778212716564</v>
+        <v>0.6069778201915076</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2099663528926781</v>
+        <v>0.2099663535204278</v>
       </c>
       <c r="P4" t="n">
-        <v>0.329210465089509</v>
+        <v>0.329210462371219</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.442005710088931</v>
+        <v>0.4420057069094739</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5458827471427209</v>
+        <v>0.5458827419665913</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6472446707101177</v>
+        <v>0.6472446630913405</v>
       </c>
     </row>
     <row r="5">
@@ -1301,34 +1301,34 @@
         <v>0.03072910312248017</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3363444892311895</v>
+        <v>0.336344490132907</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1718534303028223</v>
+        <v>0.1718534302006901</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1713803481143617</v>
+        <v>0.1713803474639331</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1666792716800023</v>
+        <v>0.1666792719372518</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1537424606716241</v>
+        <v>0.1537424602652181</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3244002807505788</v>
+        <v>0.3244002855390047</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1842334399849187</v>
+        <v>0.1842334369838802</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1742698705818155</v>
+        <v>0.1742698719206542</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1604911430785861</v>
+        <v>0.1604911418828616</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1566052656041009</v>
+        <v>0.1566052636735992</v>
       </c>
     </row>
   </sheetData>
@@ -1384,19 +1384,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.779394352068206</v>
+        <v>3.7793943633677</v>
       </c>
       <c r="C2" t="n">
-        <v>2.146394019542956</v>
+        <v>2.146393959314242</v>
       </c>
       <c r="D2" t="n">
-        <v>2.030314409989596</v>
+        <v>2.030314401688588</v>
       </c>
       <c r="E2" t="n">
-        <v>1.869786666968217</v>
+        <v>1.869786631028111</v>
       </c>
       <c r="F2" t="n">
-        <v>1.824514624213143</v>
+        <v>1.824514580245487</v>
       </c>
     </row>
     <row r="3">
@@ -1406,19 +1406,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2099663528926781</v>
+        <v>0.2099663535204278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1192441121968309</v>
+        <v>0.1192441088507912</v>
       </c>
       <c r="D3" t="n">
-        <v>0.112795244999422</v>
+        <v>0.1127952445382549</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1038770370537899</v>
+        <v>0.1038770350571173</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1013619235673968</v>
+        <v>0.1013619211247493</v>
       </c>
     </row>
     <row r="4">
@@ -1428,19 +1428,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2099663528926781</v>
+        <v>0.2099663535204278</v>
       </c>
       <c r="C4" t="n">
-        <v>0.329210465089509</v>
+        <v>0.329210462371219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.442005710088931</v>
+        <v>0.4420057069094739</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5458827471427209</v>
+        <v>0.5458827419665913</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6472446707101177</v>
+        <v>0.6472446630913405</v>
       </c>
     </row>
     <row r="5">
@@ -1450,19 +1450,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3244002807505788</v>
+        <v>0.3244002855390047</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1842334399849187</v>
+        <v>0.1842334369838802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1742698705818155</v>
+        <v>0.1742698719206542</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1604911430785861</v>
+        <v>0.1604911418828616</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1566052656041009</v>
+        <v>0.1566052636735992</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[['QEDLESHI', 'QNOHLTH', 'QHISPC', 'QEXTRCT', 'QESL', 'PERCAP', 'QFHH', 'PPUNIT', 'MDHSEVAL', 'QRICH', 'MEDAGE', 'QAGEDEP', 'QSSBEN', 'QFEMALE', 'QFEMLBR', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
+          <t>[['QEXTRCT', 'QESL', 'QHISPC', 'QEDLESHI', 'QNOHLTH', 'PERCAP', 'QFHH', 'PPUNIT', 'QRICH', 'MDHSEVAL', 'QAGEDEP', 'MEDAGE', 'QSSBEN', 'QFEMLBR', 'QFEMALE', 'QRENTER', 'QNOAUTO', 'QPOVTY']]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
